--- a/medicine/Enfance/Guy_Jimenes/Guy_Jimenes.xlsx
+++ b/medicine/Enfance/Guy_Jimenes/Guy_Jimenes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Jimenes est un auteur français de littérature de jeunesse né le 10 septembre 1954 à Rio-Salado (auj. El Malah), près d'Oran (Algérie). 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans le Loiret, à Saint-Jean-de-Braye. Il a été bibliothécaire jeunesse une vingtaine d'années avant de se consacrer entièrement à l'écriture en tant qu'auteur indépendant. Son premier roman édité est Le Grand Réparateur en 1981. Il a publié régulièrement dans le magazine J'aime lire. Ses écrits, au nombre d'une soixantaine, sont destinés à un jeune public ou à des adolescents. Il a aussi écrit ou coécrit des pièces de théâtre, des adaptations de romans et de contes, des récits documentaires pour la presse et quelques « nouvelles noires ». Ma Fille du Diable (2020) est son premier livre d'auteur-éditeur.
 </t>
@@ -542,7 +556,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Grand Réparateur, Nathan - coll. Arc-en-poche, 1981, illustré par Carlo Wieland.
 L'Arche du Diable,  Nathan - coll. Arc-en-poche, 1985, illustré par Vincent Pénot.
@@ -606,7 +622,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Son livre Harcèlement est primé par le "Prix Ados en colère 2013" et il est Coup de cœur des libraires de la Fnac. Mais aussi :
